--- a/requisitos/Revisão-Checklist.xlsx
+++ b/requisitos/Revisão-Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup HD\UNICESUMAR DOCENCIA\PRESENCIAL\ENGENHARIA DE REQUISITOS\PROVA PRATICA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F601DE7-E2BB-4BC1-B837-01985A5AA8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC122600-4A6E-4EAC-AD0F-1ADD0903F261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F09859C0-3417-4BE5-BFD4-86179CF151B0}"/>
   </bookViews>
@@ -561,16 +561,60 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -578,44 +622,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -624,12 +630,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,7 +947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D99831-AFEC-4B58-8CAC-4A42719126E8}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
@@ -964,115 +964,115 @@
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="11" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:15" ht="15.75">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="26" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="15.75">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="26" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="15.75">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="26" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1080,1146 +1080,1154 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="26.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="32.25" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="27.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="29.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="31.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="29.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="38.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="21" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="L16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="M16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="21" t="s">
+      <c r="O16" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6" t="s">
+      <c r="N17" s="4"/>
+      <c r="O17" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" ht="29.25" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" ht="29.25" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" ht="30.75" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="21" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M25" s="21" t="s">
+      <c r="M25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N25" s="21" t="s">
+      <c r="N25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="21" t="s">
+      <c r="O25" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
     </row>
     <row r="27" spans="1:15" ht="33" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
     </row>
     <row r="28" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
     </row>
     <row r="31" spans="1:15" ht="35.25" customHeight="1">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
     </row>
     <row r="32" spans="1:15" ht="37.5" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="21" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K34" s="21" t="s">
+      <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L34" s="21" t="s">
+      <c r="L34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M34" s="21" t="s">
+      <c r="M34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N34" s="21" t="s">
+      <c r="N34" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O34" s="21" t="s">
+      <c r="O34" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6" t="s">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6" t="s">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
     </row>
     <row r="37" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
     </row>
     <row r="38" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6" t="s">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6" t="s">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
     </row>
     <row r="40" spans="1:15" ht="35.25" customHeight="1">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6" t="s">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
     </row>
     <row r="41" spans="1:15" ht="27" customHeight="1">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6" t="s">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
     </row>
     <row r="42" spans="1:15" ht="30" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6" t="s">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
     </row>
     <row r="43" spans="1:15" ht="27.75" customHeight="1">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="21" t="s">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K43" s="21" t="s">
+      <c r="K43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L43" s="21" t="s">
+      <c r="L43" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M43" s="21" t="s">
+      <c r="M43" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="21" t="s">
+      <c r="N43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O43" s="21" t="s">
+      <c r="O43" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6" t="s">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6" t="s">
+      <c r="L44" s="4"/>
+      <c r="M44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6" t="s">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6" t="s">
+      <c r="L45" s="4"/>
+      <c r="M45" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
     </row>
     <row r="46" spans="1:15" ht="35.25" customHeight="1">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6" t="s">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6" t="s">
+      <c r="L46" s="4"/>
+      <c r="M46" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="21" t="s">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="21" t="s">
+      <c r="K47" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L47" s="21" t="s">
+      <c r="L47" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M47" s="21" t="s">
+      <c r="M47" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N47" s="21" t="s">
+      <c r="N47" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O47" s="21" t="s">
+      <c r="O47" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="6" t="s">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6" t="s">
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6" t="s">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6" t="s">
+      <c r="L49" s="4"/>
+      <c r="M49" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="21" t="s">
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K50" s="21" t="s">
+      <c r="K50" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L50" s="21" t="s">
+      <c r="L50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M50" s="21" t="s">
+      <c r="M50" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N50" s="21" t="s">
+      <c r="N50" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O50" s="21" t="s">
+      <c r="O50" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="45.75" customHeight="1">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="6" t="s">
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6" t="s">
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
     </row>
     <row r="52" spans="1:15" ht="43.5" customHeight="1">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6" t="s">
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6" t="s">
+      <c r="L52" s="4"/>
+      <c r="M52" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="N52" s="27"/>
-      <c r="O52" s="6"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="4"/>
     </row>
     <row r="53" spans="1:15" ht="30" customHeight="1">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6" t="s">
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6" t="s">
+      <c r="L53" s="4"/>
+      <c r="M53" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="55">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A2:B6"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="A53:I53"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A38:I38"/>
     <mergeCell ref="A28:I28"/>
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="A17:I17"/>
@@ -2233,45 +2241,30 @@
     <mergeCell ref="A24:I24"/>
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="A52:I52"/>
-    <mergeCell ref="A53:I53"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{B7527A94-B959-4DF1-8EEB-C22FDF930CB0}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B7527A94-B959-4DF1-8EEB-C22FDF930CB0}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>K1</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>